--- a/BACOMADE/DIAGRAMAS/HU.xlsx
+++ b/BACOMADE/DIAGRAMAS/HU.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\BACOMADE\BACOMADE\DIAGRAMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D2FC14A-F593-4A25-B72F-4CF48193DE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -177,9 +176,6 @@
     <t>Se debe ver el precio de la/s partida/s inclinado hacia la derecha con la letra de color azul oscuro.</t>
   </si>
   <si>
-    <t>Dado que se quiere ver los medios de pago que se tiene. Cuando se despliegue el botón de selección se podrá elegir la forma de pago y entonces proseguir con el trámite.</t>
-  </si>
-  <si>
     <t>Como comprador quiero saber cuánto tiempo demora la entrega de la/s partida/s para poder proseguir con mis diligencias.</t>
   </si>
   <si>
@@ -189,12 +185,6 @@
     <t>Como comprador quiero un botón de selección para elegir la opción de pago.</t>
   </si>
   <si>
-    <t>Dado que se quiere ver cuánto tiempo demora la entrega. Cuando se haya hecho la solicitud de envío aparecerá entonces la información de cuánto tiempo máximo demora éste.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dado que se quiere ver un aviso para confirmar la información que se ingresó. Cuando se haga clic en "enviar" aparecerá el aviso y entonces se podrá confirmar si están correctos los datos y se hará el pedido. </t>
-  </si>
-  <si>
     <t>Actividades</t>
   </si>
   <si>
@@ -355,12 +345,21 @@
   </si>
   <si>
     <t xml:space="preserve">1. Crear un botón llamado pago por tarjeta. (5h)                                        2.crear un pequeño formulario acerca de su tarjeta y su pago. (15h) 3.crear un pequeño aviso cuando su pedido sea pagado.(16h)                                                        </t>
+  </si>
+  <si>
+    <t>Dado que se quiere ver los medios de pago que se tiene. Cuando se despliegue el botón de selección se podrá elegir la forma de pago ya sea por contraentrega, consignación bancaria, transferencia electrónica o código QR y entonces proseguir con el trámite.</t>
+  </si>
+  <si>
+    <t>Dado que se quiere ver cuánto tiempo demora la entrega. Cuando se haya hecho la solicitud de envío aparecerá entonces un aviso  que dice "en máximo 48 horas recibirá su envío".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado que se quiere ver un aviso para confirmar la información que se ingresó. Cuando se haga clic en "enviar" aparecerá el aviso y entonces se podrá confirmar si están correctos los datos y se hará el pedido o se cancelará y podrá rectificar la información. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -631,7 +630,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -703,7 +702,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4406-4353-9F87-8A63F63AF711}"/>
             </c:ext>
@@ -762,7 +761,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4406-4353-9F87-8A63F63AF711}"/>
             </c:ext>
@@ -777,11 +776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1184573328"/>
-        <c:axId val="-1184570064"/>
+        <c:axId val="-250469232"/>
+        <c:axId val="-250458352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1184573328"/>
+        <c:axId val="-250469232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1184570064"/>
+        <c:crossAx val="-250458352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1184570064"/>
+        <c:axId val="-250458352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1184573328"/>
+        <c:crossAx val="-250469232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -851,7 +850,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,11 +1192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1238,7 +1237,7 @@
         <v>33</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="157.5">
@@ -1268,18 +1267,18 @@
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="123.75" customHeight="1">
+    <row r="3" spans="1:9" ht="191.25" customHeight="1">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E16" si="0">IF(F3&lt;=1,"XS",IF(F3&lt;=2,"S",IF(F3&lt;5,"M",IF(F3&lt;8,"L","XL"))))</f>
@@ -1296,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.5" customHeight="1">
@@ -1304,13 +1303,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1327,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="126.75" customHeight="1">
@@ -1338,10 +1337,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1358,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="132" customHeight="1">
@@ -1366,13 +1365,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1389,21 +1388,21 @@
         <v>3</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="144.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="178.5" customHeight="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1420,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" customHeight="1">
@@ -1428,13 +1427,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1451,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="133.5" customHeight="1">
@@ -1459,13 +1458,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1482,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="108" customHeight="1">
@@ -1490,13 +1489,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1512,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="110.25">
@@ -1520,13 +1519,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1543,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="102.75" customHeight="1">
@@ -1551,13 +1550,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1573,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="126">
@@ -1581,13 +1580,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1603,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="157.5">
@@ -1611,13 +1610,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1633,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="141.75">
@@ -1641,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1664,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="130.5" customHeight="1" thickBot="1">
@@ -1672,13 +1671,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1695,7 +1694,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="118.5" customHeight="1" thickBot="1">
@@ -1703,16 +1702,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" s="15">
         <v>4</v>
@@ -1724,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1742,7 +1741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1927,7 +1926,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/BACOMADE/DIAGRAMAS/HU.xlsx
+++ b/BACOMADE/DIAGRAMAS/HU.xlsx
@@ -188,9 +188,6 @@
     <t>Actividades</t>
   </si>
   <si>
-    <t>Dado que quiero ver un listado de partidas para escoger. Cuando despliegue la lista de opciones. Entonces el sistema me debe permitir seleccionar la partida que necesito.</t>
-  </si>
-  <si>
     <t>Se debe ingresar la información que nos pida el sitio web para registrarnos y se guardará en una base de datos. Además podrás iniciar sesión solo con correo y contraseña.</t>
   </si>
   <si>
@@ -260,21 +257,12 @@
     <t>Dado que la secretaria de la parroquia quiere que haya notificaciones de los pedidos de los usuarios. Cuando un comprador haga su pedido entonces aparecerá un aviso de este a la secretaria; en la parte superior derecha del sitio web.</t>
   </si>
   <si>
-    <t>Dado que se quiere un código para pagar directamente en el banco. Cuando seleccione la forma de pago ("código de recibo") entonces aparecerá el código que podrá descargar e imprimir para ir al banco y pagar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dado que se quiere ver un formulario. Cuando el usuario ingrese al sitio web, podrá ver y diligenciar el formulario para hacer su pedido. </t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>COMO comprador QUIERO tener una opcion de pagar con mi tarjeta de crédito PARA facilitar mi pago</t>
   </si>
   <si>
-    <t>Dado que se quiere pagar por tarjeta, entonces cuando el comprador elija la opción de pago por tarjeta y llene las casillas le debe de salir pago exitoso</t>
-  </si>
-  <si>
     <t>1. Crear el menú desplegable (2h).  2. Crear las opciones del menú desplegable (sub-menú) (2h).           3. Crear el diseño de los botones (6h).                                                              4. Crear la ventana para diligenciar el pago (110h).</t>
   </si>
   <si>
@@ -305,9 +293,6 @@
     <t>1. Crear un botón desplegable(4h) 2. Crear las opciones del botón desplegable(4h)                                      3. Guardar informacion.(4h)</t>
   </si>
   <si>
-    <t>Dado que quiero iniciar sesión con una cuenta personalizada; entonces cuando ingrese mi correo y contraseña me llevará directamente al portal de inicio del sitio web.</t>
-  </si>
-  <si>
     <t>1. Crear un botón de registro(4h)     2. Crear un cuestionario nombre, apellido, correo y contraseña(5h)    3. Guardar la información en una base de datos(5h)                                   4. Crear un botón de inicio de sesión(10h)</t>
   </si>
   <si>
@@ -354,6 +339,21 @@
   </si>
   <si>
     <t xml:space="preserve">Dado que se quiere ver un aviso para confirmar la información que se ingresó. Cuando se haga clic en "enviar" aparecerá el aviso y entonces se podrá confirmar si están correctos los datos y se hará el pedido o se cancelará y podrá rectificar la información. </t>
+  </si>
+  <si>
+    <t>Dado que quiero ver un listado de partidas para escoger. Cuando despliegue la lista de opciones se verá las partidas: bautismo, confirmación, matrimonio y defunción. Entonces el sistema me debe permitir seleccionar la partida que necesito.</t>
+  </si>
+  <si>
+    <t>Dado que quiero iniciar sesión con una cuenta personalizada; entonces cuando ingrese mi nombre, apellidos, correo y cree una contraseña para registrarme podré iniciar sesión con correo y contraseña me llevará directamente al portal de inicio del sitio web.</t>
+  </si>
+  <si>
+    <t>Dado que se quiere un código para pagar directamente en el banco. Cuando seleccione la forma de pago ("consignación bancaria") entonces aparecerá el código que podrá descargar e imprimir para ir al banco y pagar.</t>
+  </si>
+  <si>
+    <t>Dado que se quiere pagar por tarjeta, entonces cuando el comprador elija la opción de pago por transferencia electrónica y llene las casillas le debe de salir pago exitoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado que se quiere ver un formulario. Cuando el usuario ingrese al sitio web, podrá ver y diligenciar el formulario ingresando nombre, documento, número de celular, dirección, correo, seleccionando la/s partida/s que necesita, ingresando el rango de la fecha de la partida y seleccionando la iglesia y la forma de pago para hacer su pedido. </t>
   </si>
 </sst>
 </file>
@@ -776,11 +776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-250469232"/>
-        <c:axId val="-250458352"/>
+        <c:axId val="-762413376"/>
+        <c:axId val="-762409024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-250469232"/>
+        <c:axId val="-762413376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-250458352"/>
+        <c:crossAx val="-762409024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -798,7 +798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-250458352"/>
+        <c:axId val="-762409024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-250469232"/>
+        <c:crossAx val="-762413376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -850,7 +850,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1275,10 +1275,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E16" si="0">IF(F3&lt;=1,"XS",IF(F3&lt;=2,"S",IF(F3&lt;5,"M",IF(F3&lt;8,"L","XL"))))</f>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.5" customHeight="1">
@@ -1303,13 +1303,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="126.75" customHeight="1">
@@ -1337,10 +1337,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1357,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="132" customHeight="1">
@@ -1368,10 +1368,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="178.5" customHeight="1">
@@ -1399,10 +1399,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1419,21 +1419,21 @@
         <v>5</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="120" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="162" customHeight="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1450,21 +1450,21 @@
         <v>4</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="133.5" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="185.25" customHeight="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1481,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="108" customHeight="1">
@@ -1489,13 +1489,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="110.25">
@@ -1519,13 +1519,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="102.75" customHeight="1">
@@ -1550,13 +1550,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1572,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="126">
@@ -1580,13 +1580,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="157.5">
@@ -1610,13 +1610,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1632,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="141.75">
@@ -1640,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="18" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1663,21 +1663,21 @@
         <v>5</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="130.5" customHeight="1" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="233.25" customHeight="1" thickBot="1">
       <c r="A16" s="13">
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1694,7 +1694,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="118.5" customHeight="1" thickBot="1">
@@ -1702,16 +1702,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F17" s="15">
         <v>4</v>
@@ -1723,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9">
